--- a/Assets/SettingParam/Enemy.xlsx
+++ b/Assets/SettingParam/Enemy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tairo\Unity\BombCrash\Assets\SettingParam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA2F4B3-92DC-4917-9147-3E5B09DC783C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA81EC58-F981-4D87-A786-1042C78EEF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CA3F876-2472-4687-9305-35ECAEA8CE09}"/>
+    <workbookView xWindow="24780" yWindow="1740" windowWidth="21600" windowHeight="11292" xr2:uid="{6CA3F876-2472-4687-9305-35ECAEA8CE09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,12 +146,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C2F370-6A9F-40E9-8DE7-F8815ED438E0}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -504,237 +498,55 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
         <v>18</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
